--- a/ACCI_Center/CandidatesInformation.xlsx
+++ b/ACCI_Center/CandidatesInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\C#\ACCI_Center\ACCI_Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF09B8B-3BA5-4170-86B2-A1724A516A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA3F4FB-63F8-4B21-92B6-AAD4491AAC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11364" yWindow="0" windowWidth="11844" windowHeight="12360" xr2:uid="{553204D6-17E7-41F0-88E1-0F7DCD56580B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{553204D6-17E7-41F0-88E1-0F7DCD56580B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E3ED41-D49E-41B5-8DE1-FF1E5E046C6F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,9 +471,11 @@
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +485,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1">
+        <v>314342423423</v>
+      </c>
+      <c r="E1" s="2">
+        <v>38204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -493,8 +502,14 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>314342423423</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -504,8 +519,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>314342423423</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -515,8 +536,14 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>314342423423</v>
+      </c>
+      <c r="E4" s="2">
+        <v>38326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -526,8 +553,14 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>314342423423</v>
+      </c>
+      <c r="E5" s="2">
+        <v>38022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -537,8 +570,14 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>314342423423</v>
+      </c>
+      <c r="E6" s="2">
+        <v>38082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -548,8 +587,14 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>314342423423</v>
+      </c>
+      <c r="E7" s="2">
+        <v>38082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -559,8 +604,14 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>314342423423</v>
+      </c>
+      <c r="E8" s="2">
+        <v>38082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -570,8 +621,14 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>314342423423</v>
+      </c>
+      <c r="E9" s="2">
+        <v>38082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -581,8 +638,14 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>314342423423</v>
+      </c>
+      <c r="E10" s="2">
+        <v>38082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -592,8 +655,14 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>314342423423</v>
+      </c>
+      <c r="E11" s="2">
+        <v>38082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -602,6 +671,12 @@
       </c>
       <c r="C12" t="s">
         <v>14</v>
+      </c>
+      <c r="D12">
+        <v>314342423423</v>
+      </c>
+      <c r="E12" s="2">
+        <v>38082</v>
       </c>
     </row>
   </sheetData>
